--- a/report_ca_nhan/LONG XUYÊN/NV-30 Đào Vương Anh 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-30 Đào Vương Anh 7-2024.xlsx
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612500</v>
+        <v>647500</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1875000</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2687500</v>
+        <v>2829642.857142857</v>
       </c>
     </row>
     <row r="30">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2687500</v>
+        <v>2829642.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/NV-30 Đào Vương Anh 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-30 Đào Vương Anh 7-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,20 +706,63 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>574</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trần thị mỹ duyên</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>200000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +801,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="3">
@@ -768,7 +811,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>647500</v>
+        <v>717500</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +901,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1982142.857142857</v>
+        <v>2196428.571428571</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +951,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="18">
@@ -1028,7 +1071,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2829642.857142857</v>
+        <v>3163928.571428571</v>
       </c>
     </row>
     <row r="30">
@@ -1048,7 +1091,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2829642.857142857</v>
+        <v>3163928.571428571</v>
       </c>
     </row>
   </sheetData>
